--- a/biology/Botanique/Monstera_tuberculata/Monstera_tuberculata.xlsx
+++ b/biology/Botanique/Monstera_tuberculata/Monstera_tuberculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Monstera tuberculata est une espèce de liane grimpante du genre Monstera appartenant à la famille des aracées. Elle a été décrite par Lundell en 1939[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monstera tuberculata est une espèce de liane grimpante du genre Monstera appartenant à la famille des aracées. Elle a été décrite par Lundell en 1939.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante vivace possède des feuilles ovales de 8 cm à 18 cm de longueur et de 5 cm à 11 cm de largeur à la base cornée et au bout souvent aigu. Leur pétiole, qui mesure d'1 cm à 4 cm, est glabre.
 Les fleurs bisexuées de Monstera tuberculata, d'un jaune clair blanchâtre, sont groupées en spadices axillaires et cylindriques qui mesurent de 6 à 9 cm de longueur et de 2 à 3 cm de diamètre. Les spadices possèdent une spathe blanchâtre convolutée et hémisphérique de 5 cm à 9 cm de longueur. Elle est coriace à l'apex acuminé.
@@ -543,9 +557,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Monstera tuberculata var. brevinoda (Standl. &amp; L.O.Williams) Madison 1977[3] (Nicaragua, Costa Rica et Panama)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Monstera tuberculata var. brevinoda (Standl. &amp; L.O.Williams) Madison 1977 (Nicaragua, Costa Rica et Panama)
 Monstera tuberculata var. tuberculata (du Mexique au Bélize)</t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Philodendron brevinodum</t>
         </is>
@@ -604,7 +622,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Monstera tuberculata se rencontre en Amérique centrale néotropicale dans les forêts humides de basse altitude du Mexique, puis du Nicaragua, du Costa Rica et du Panama, jusqu'au Bélize.
 </t>
